--- a/03.crawler/01.RockAuto/file/1.part_number/crawler_2.xlsx
+++ b/03.crawler/01.RockAuto/file/1.part_number/crawler_2.xlsx
@@ -3996,12 +3996,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>912137</t>
+          <t>912134</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912137,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912134,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>912139</t>
+          <t>912137</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912139,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912137,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>912145</t>
+          <t>912139</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912145,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912139,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>912146</t>
+          <t>912145</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912146,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912145,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4136,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>912175</t>
+          <t>912146</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912175,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912146,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>912176</t>
+          <t>912175</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912176,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912175,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>912177</t>
+          <t>912176</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912177,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912176,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>912178</t>
+          <t>912177</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912178,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912177,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4276,12 +4276,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>912179</t>
+          <t>912178</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912179,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912178,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4311,12 +4311,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>912180</t>
+          <t>912179</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912180,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912179,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4346,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>912181</t>
+          <t>912180</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912181,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912180,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>912182</t>
+          <t>912181</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912182,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912181,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4416,12 +4416,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>912183</t>
+          <t>912182</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912183,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912182,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>912184</t>
+          <t>912183</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912184,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912183,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4486,12 +4486,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>912185</t>
+          <t>912184</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912185,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912184,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>912186</t>
+          <t>912185</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912186,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912185,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4556,12 +4556,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>912187</t>
+          <t>912186</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912187,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912186,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>912188</t>
+          <t>912187</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912188,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912187,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4626,12 +4626,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>912190</t>
+          <t>912188</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912190,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912188,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>912191</t>
+          <t>912190</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912191,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912190,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4696,12 +4696,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>912192</t>
+          <t>912191</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912192,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912191,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4731,12 +4731,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>912193</t>
+          <t>912192</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912193,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912192,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>912194</t>
+          <t>912193</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912194,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912193,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>912195</t>
+          <t>912194</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912195,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912194,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4836,12 +4836,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>912196</t>
+          <t>912195</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912196,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912195,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4871,12 +4871,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>912197</t>
+          <t>912196</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912197,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912196,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>912198</t>
+          <t>912197</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912198,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912197,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4941,12 +4941,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>912199</t>
+          <t>912198</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912199,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912198,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -4976,12 +4976,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>912200</t>
+          <t>912199</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912200,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912199,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>912201</t>
+          <t>912200</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912201,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912200,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5046,12 +5046,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>912202</t>
+          <t>912201</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912202,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912201,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>912203</t>
+          <t>912202</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912203,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912202,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>912204</t>
+          <t>912203</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912204,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912203,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5151,12 +5151,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>912205</t>
+          <t>912204</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912205,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912204,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5186,12 +5186,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>912206</t>
+          <t>912205</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912206,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912205,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>912207</t>
+          <t>912206</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912207,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912206,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5256,12 +5256,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>912208</t>
+          <t>912207</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912208,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912207,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5291,12 +5291,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>912209</t>
+          <t>912208</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912209,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912208,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>912210</t>
+          <t>912209</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912210,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912209,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5361,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>912211</t>
+          <t>912210</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912211,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912210,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>912212</t>
+          <t>912211</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912212,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912211,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>912213</t>
+          <t>912212</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912213,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912212,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5466,12 +5466,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>912214</t>
+          <t>912213</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912214,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912213,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5501,12 +5501,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>912215</t>
+          <t>912214</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912215,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912214,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>912216</t>
+          <t>912215</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912216,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912215,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5571,12 +5571,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>912217</t>
+          <t>912216</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912217,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912216,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>912218</t>
+          <t>912217</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912218,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912217,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>912220</t>
+          <t>912218</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912220,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912218,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5676,12 +5676,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>912221</t>
+          <t>912220</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912221,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912220,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5711,12 +5711,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>912223</t>
+          <t>912221</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912223,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912221,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>912400</t>
+          <t>912223</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912400,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912223,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5781,12 +5781,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>912401</t>
+          <t>912400</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912401,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912400,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5816,12 +5816,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>912402</t>
+          <t>912401</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912402,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912401,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>912403</t>
+          <t>912402</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912403,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912402,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>912404</t>
+          <t>912403</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912404,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912403,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>912405</t>
+          <t>912404</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912405,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912404,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>912406</t>
+          <t>912405</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912406,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912405,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -5991,12 +5991,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>912407</t>
+          <t>912406</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912407,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912406,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6026,12 +6026,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>912408</t>
+          <t>912407</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912408,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912407,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>912409</t>
+          <t>912408</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912409,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912408,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>912410</t>
+          <t>912409</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912410,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912409,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6131,12 +6131,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>912411</t>
+          <t>912410</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912411,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912410,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>912412</t>
+          <t>912411</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912412,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912411,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6201,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>912413</t>
+          <t>912412</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912413,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912412,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6236,12 +6236,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>912414</t>
+          <t>912413</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912414,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912413,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>912415</t>
+          <t>912414</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912415,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912414,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6306,12 +6306,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>912416</t>
+          <t>912415</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912416,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912415,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6341,12 +6341,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>912417</t>
+          <t>912416</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912417,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912416,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6376,12 +6376,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>912418</t>
+          <t>912417</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912418,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912417,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6411,12 +6411,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>912419</t>
+          <t>912418</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912419,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912418,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6446,12 +6446,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>912420</t>
+          <t>912419</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912420,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912419,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>912421</t>
+          <t>912420</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912421,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912420,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6516,12 +6516,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>912422</t>
+          <t>912421</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912422,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912421,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6551,12 +6551,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>912424</t>
+          <t>912422</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912424,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912422,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6586,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>912428</t>
+          <t>912424</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912428,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912424,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6621,12 +6621,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>912431</t>
+          <t>912428</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912431,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912428,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6656,12 +6656,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>912432</t>
+          <t>912431</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912432,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912431,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6691,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>912433</t>
+          <t>912432</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912433,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912432,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6726,12 +6726,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>912434</t>
+          <t>912433</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912434,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912433,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6761,12 +6761,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>912435</t>
+          <t>912434</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912435,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912434,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6796,12 +6796,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>912437</t>
+          <t>912435</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912437,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912435,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6831,12 +6831,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>912438</t>
+          <t>912437</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912438,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912437,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6866,12 +6866,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>912439</t>
+          <t>912438</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912439,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912438,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>912440</t>
+          <t>912439</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912440,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912439,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6936,12 +6936,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>912441</t>
+          <t>912440</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912441,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912440,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -6971,12 +6971,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>912442</t>
+          <t>912441</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912442,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912441,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7006,12 +7006,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>912443</t>
+          <t>912442</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912443,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912442,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7041,12 +7041,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>912444</t>
+          <t>912443</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912444,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912443,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>912445</t>
+          <t>912444</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912445,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912444,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7111,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>912450</t>
+          <t>912445</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912450,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912445,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7146,12 +7146,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>912451</t>
+          <t>912450</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912451,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912450,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7181,12 +7181,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>912452</t>
+          <t>912451</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912452,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912451,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>912453</t>
+          <t>912452</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912453,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912452,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>912454</t>
+          <t>912453</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912454,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912453,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7286,12 +7286,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>912455</t>
+          <t>912454</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912455,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912454,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>912456</t>
+          <t>912455</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912456,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912455,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>912457</t>
+          <t>912456</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912457,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912456,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7391,12 +7391,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>912458</t>
+          <t>912457</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912458,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912457,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7426,12 +7426,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>912459</t>
+          <t>912458</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912459,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912458,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7461,12 +7461,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>912460</t>
+          <t>912459</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912460,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912459,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7496,12 +7496,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>912461</t>
+          <t>912460</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912461,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912460,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>912462</t>
+          <t>912461</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912462,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912461,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7566,12 +7566,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>912463</t>
+          <t>912462</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912463,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912462,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7601,12 +7601,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>912464</t>
+          <t>912463</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912464,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912463,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7636,12 +7636,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>912465</t>
+          <t>912464</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912465,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912464,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7671,12 +7671,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>912467</t>
+          <t>912465</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912467,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912465,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7706,12 +7706,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>912469</t>
+          <t>912467</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912469,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912467,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>912470</t>
+          <t>912469</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912470,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912469,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7776,12 +7776,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>912472</t>
+          <t>912470</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912472,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912470,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>912473</t>
+          <t>912472</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912473,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912472,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7846,12 +7846,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>912474</t>
+          <t>912473</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912474,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912473,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7881,12 +7881,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>912475</t>
+          <t>912474</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912475,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912474,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7916,12 +7916,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>912477</t>
+          <t>912475</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912477,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912475,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7951,12 +7951,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>912478</t>
+          <t>912477</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912478,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912477,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -7986,12 +7986,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>912479</t>
+          <t>912478</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912479,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912478,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8021,12 +8021,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>912480</t>
+          <t>912479</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912480,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912479,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8056,12 +8056,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>912481</t>
+          <t>912480</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912481,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912480,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8091,12 +8091,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>912483</t>
+          <t>912481</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912483,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912481,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8126,12 +8126,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>912484</t>
+          <t>912483</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912484,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912483,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8161,12 +8161,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>912485</t>
+          <t>912484</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912485,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912484,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8196,12 +8196,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>912487</t>
+          <t>912485</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912487,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912485,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8231,12 +8231,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>912488</t>
+          <t>912487</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912488,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912487,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8266,12 +8266,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>912491</t>
+          <t>912488</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912491,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912488,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8301,12 +8301,12 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>912613</t>
+          <t>912491</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912613,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912491,hood+release+cable,1360</t>
         </is>
       </c>
     </row>
@@ -8336,12 +8336,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>912626</t>
+          <t>912613</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/dorman,912626,hood+release+cable,1360</t>
+          <t>https://www.rockauto.com/en/parts/dorman,912613,hood+release+cable,1360</t>
         </is>
       </c>
     </row>

--- a/03.crawler/01.RockAuto/file/1.part_number/crawler_2.xlsx
+++ b/03.crawler/01.RockAuto/file/1.part_number/crawler_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -44,82 +47,79 @@
     <t>Url</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Type Code</t>
   </si>
   <si>
-    <t>Fuel Tank Cap</t>
-  </si>
-  <si>
-    <t>MOTORCRAFT</t>
-  </si>
-  <si>
-    <t>FC1013</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1013,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>Fuel &amp; Air</t>
-  </si>
-  <si>
-    <t>5900</t>
-  </si>
-  <si>
-    <t>FC1015</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1015,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>FC1018</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1018,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>FC1021</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1021,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>FC1024</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1024,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>FC1032</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1032,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>FC1036</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1036,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>FC1054</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1054,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>FC1055</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1055,fuel+tank+cap,5900</t>
-  </si>
-  <si>
-    <t>FC1058</t>
-  </si>
-  <si>
-    <t>https://www.rockauto.com/en/parts/motorcraft,FC1058,fuel+tank+cap,5900</t>
+    <t>Heat &amp; Air Conditioning</t>
+  </si>
+  <si>
+    <t>A/C Compressor Bypass Pulley</t>
+  </si>
+  <si>
+    <t>SKP</t>
+  </si>
+  <si>
+    <t>SK34151</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34151,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>10329</t>
+  </si>
+  <si>
+    <t>SK34152</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34152,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>SK34153</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34153,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>SK34155</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34155,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>SK34156</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34156,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>SK34157</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34157,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>SK34158</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34158,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>SK34159</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34159,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>SK34161</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34161,a/c+compressor+bypass+pulley,10329</t>
+  </si>
+  <si>
+    <t>SK34162</t>
+  </si>
+  <si>
+    <t>https://www.rockauto.com/en/parts/skp,SK34162,a/c+compressor+bypass+pulley,10329</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1115,7 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="$A12:$XFD40"/>
     </sheetView>
   </sheetViews>
@@ -1178,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1201,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1224,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1247,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1270,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1293,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1316,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1362,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
